--- a/CHILE/Energía/Emisiones CO2 Energía Chile 1990-2016.xlsx
+++ b/CHILE/Energía/Emisiones CO2 Energía Chile 1990-2016.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATAICC\CHILE\Energía\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\Energía\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38382143-1421-41DF-8269-C3CC7A12F4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3945D08-E0A2-462B-A63D-32E84EC63338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="13">
   <si>
     <t>Emisiones por Tipo de emisión</t>
   </si>
@@ -39,12 +40,33 @@
   <si>
     <t>Año</t>
   </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Emisiones (kton CO2)</t>
+  </si>
+  <si>
+    <t>Emisiones (kton CO2eq)</t>
+  </si>
+  <si>
+    <t>Energía</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +216,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +403,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -536,7 +570,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -544,13 +578,17 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -596,7 +634,146 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -615,26 +792,13 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -736,6 +900,45 @@
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -750,14 +953,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CO2_Energia_Chile" displayName="CO2_Energia_Chile" ref="A2:E29" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A2:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CO2_Energia_Chile" displayName="CO2_Energia_Chile" ref="A2:E29" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A2:E29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Año" dataDxfId="6"/>
-    <tableColumn id="2" name="1.A - Actividades de quema de combustible (método sectorial)" dataDxfId="5"/>
-    <tableColumn id="3" name="1.B - Emisiones fugitivas de combustibles" dataDxfId="4"/>
-    <tableColumn id="4" name="1.C - Transporte y almacenamiento de CO2" dataDxfId="3"/>
-    <tableColumn id="5" name="1 - Energía" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="1.A - Actividades de quema de combustible (método sectorial)" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="1.B - Emisiones fugitivas de combustibles" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="1.C - Transporte y almacenamiento de CO2" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="1 - Energía" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1359FAA7-87A0-487C-A5E0-A30FF8CA2AE7}" name="CO2_Energia_Chile3" displayName="CO2_Energia_Chile3" ref="A2:F110" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F110" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{43CB5FCD-43E8-401F-B79A-5C2FD55AD2F5}" name="Año" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{24150C47-4BB4-452D-83DB-DAAD3C340283}" name="Sector" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{CFE2FAA7-622F-436D-A38A-661098BD8D9B}" name="Proceso" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{4E58BD47-16B2-4150-917C-D09C87CA1A46}" name="Gas" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{10E357DB-D1A7-464A-9EF6-735D650918D2}" name="Emisiones (kton CO2)" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{29DB28FB-7271-4C55-ACEA-74BC51C34399}" name="Emisiones (kton CO2eq)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1059,14 +1277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" customWidth="1"/>
@@ -1075,16 +1293,16 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1101,8 +1319,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1990</v>
       </c>
       <c r="B3" s="2">
@@ -1118,8 +1336,8 @@
         <v>30405.604626100001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1991</v>
       </c>
       <c r="B4" s="2">
@@ -1135,8 +1353,8 @@
         <v>28899.077633600002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>1992</v>
       </c>
       <c r="B5" s="2">
@@ -1152,8 +1370,8 @@
         <v>29889.254532399998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>1993</v>
       </c>
       <c r="B6" s="2">
@@ -1169,8 +1387,8 @@
         <v>32198.766966499999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>1994</v>
       </c>
       <c r="B7" s="2">
@@ -1186,8 +1404,8 @@
         <v>34632.066709999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>1995</v>
       </c>
       <c r="B8" s="2">
@@ -1203,8 +1421,8 @@
         <v>37622.225612499999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>1996</v>
       </c>
       <c r="B9" s="2">
@@ -1220,8 +1438,8 @@
         <v>43406.3940602</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>1997</v>
       </c>
       <c r="B10" s="2">
@@ -1237,8 +1455,8 @@
         <v>50024.562151899998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>1998</v>
       </c>
       <c r="B11" s="2">
@@ -1254,8 +1472,8 @@
         <v>50508.821286600003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>1999</v>
       </c>
       <c r="B12" s="2">
@@ -1271,8 +1489,8 @@
         <v>53051.002392100003</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>2000</v>
       </c>
       <c r="B13" s="2">
@@ -1288,8 +1506,8 @@
         <v>49366.981357899997</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>2001</v>
       </c>
       <c r="B14" s="2">
@@ -1305,8 +1523,8 @@
         <v>47222.808927600003</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>2002</v>
       </c>
       <c r="B15" s="2">
@@ -1322,8 +1540,8 @@
         <v>47987.2754929</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>2003</v>
       </c>
       <c r="B16" s="2">
@@ -1339,8 +1557,8 @@
         <v>48772.414127999997</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>2004</v>
       </c>
       <c r="B17" s="2">
@@ -1356,8 +1574,8 @@
         <v>53370.028918999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>2005</v>
       </c>
       <c r="B18" s="2">
@@ -1373,8 +1591,8 @@
         <v>54779.296360799999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>2006</v>
       </c>
       <c r="B19" s="2">
@@ -1390,8 +1608,8 @@
         <v>55691.6958046</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>2007</v>
       </c>
       <c r="B20" s="2">
@@ -1407,8 +1625,8 @@
         <v>65389.285548899999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>2008</v>
       </c>
       <c r="B21" s="2">
@@ -1424,8 +1642,8 @@
         <v>66756.9335517</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>2009</v>
       </c>
       <c r="B22" s="2">
@@ -1441,8 +1659,8 @@
         <v>64397.067811499997</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>2010</v>
       </c>
       <c r="B23" s="2">
@@ -1458,8 +1676,8 @@
         <v>65978.095219900002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>2011</v>
       </c>
       <c r="B24" s="2">
@@ -1475,8 +1693,8 @@
         <v>73651.0779052</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>2012</v>
       </c>
       <c r="B25" s="2">
@@ -1492,8 +1710,8 @@
         <v>77451.440441700004</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>2013</v>
       </c>
       <c r="B26" s="2">
@@ -1509,8 +1727,8 @@
         <v>77018.348398100003</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>2014</v>
       </c>
       <c r="B27" s="2">
@@ -1526,8 +1744,8 @@
         <v>74430.394618200007</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>2015</v>
       </c>
       <c r="B28" s="2">
@@ -1543,8 +1761,8 @@
         <v>80837.031775900003</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>2016</v>
       </c>
       <c r="B29" s="2">
@@ -1570,4 +1788,2229 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D5BD26-66FF-4109-909B-5915A68E52CD}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:F110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30403.040451500001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>30403.040451500001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>28896.8777773</v>
+      </c>
+      <c r="F4" s="2">
+        <v>28896.8777773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>29887.340363800002</v>
+      </c>
+      <c r="F5" s="2">
+        <v>29887.340363800002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32196.949377600002</v>
+      </c>
+      <c r="F6" s="2">
+        <v>32196.949377600002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>34630.201933099997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>34630.201933099997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>37620.797813999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>37620.797813999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43405.092838299999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43405.092838299999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50023.372840199998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50023.372840199998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50507.595730200002</v>
+      </c>
+      <c r="F11" s="2">
+        <v>50507.595730200002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2">
+        <v>53049.601877900001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>53049.601877900001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>49365.319165499997</v>
+      </c>
+      <c r="F13" s="2">
+        <v>49365.319165499997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>47221.065040000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>47221.065040000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>47985.632888499997</v>
+      </c>
+      <c r="F15" s="2">
+        <v>47985.632888499997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>48770.831734300002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>48770.831734300002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>53368.383343000001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>53368.383343000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2">
+        <v>54777.691080999997</v>
+      </c>
+      <c r="F18" s="2">
+        <v>54777.691080999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2">
+        <v>55690.219883500002</v>
+      </c>
+      <c r="F19" s="2">
+        <v>55690.219883500002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2">
+        <v>65388.237883599999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>65388.237883599999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2">
+        <v>66756.089616800004</v>
+      </c>
+      <c r="F21" s="2">
+        <v>66756.089616800004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2">
+        <v>64395.9889262</v>
+      </c>
+      <c r="F22" s="2">
+        <v>64395.9889262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2">
+        <v>65976.776604800005</v>
+      </c>
+      <c r="F23" s="2">
+        <v>65976.776604800005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2">
+        <v>73649.744647800006</v>
+      </c>
+      <c r="F24" s="2">
+        <v>73649.744647800006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2">
+        <v>77449.973966899997</v>
+      </c>
+      <c r="F25" s="2">
+        <v>77449.973966899997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2">
+        <v>77016.838224000006</v>
+      </c>
+      <c r="F26" s="2">
+        <v>77016.838224000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2">
+        <v>74429.000655900003</v>
+      </c>
+      <c r="F27" s="2">
+        <v>74429.000655900003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2">
+        <v>80835.833300700004</v>
+      </c>
+      <c r="F28" s="2">
+        <v>80835.833300700004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2">
+        <v>84119.779632499994</v>
+      </c>
+      <c r="F29" s="2">
+        <v>84119.779632499994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.5641745999999999</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.5641745999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.1998563</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.1998563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1.9141686</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1.9141686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.8175889000000001</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1.8175889000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.8647769000000001</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1.8647769000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.4277985</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.4277985</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.3012219</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.3012219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.1893117</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.1893117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.2255564000000001</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1.2255564000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.4005141999999999</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.4005141999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.6621923999999999</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1.6621923999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.7438876000000001</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.7438876000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.6426044</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.6426044</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.5823936999999999</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1.5823936999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.6455759999999999</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.6455759999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.6052797999999999</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1.6052797999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.4759211000000001</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1.4759211000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1.0476653</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1.0476653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.84393490000000004</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.84393490000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1.0788853</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1.0788853</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.3186150999999999</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1.3186150999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.3332573999999999</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1.3332573999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.4664748000000001</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1.4664748000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1.5101741</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1.5101741</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1.3939623000000001</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1.3939623000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1.1984752000000001</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1.1984752000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1.2079844</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1.2079844</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="2">
+        <v>30405.604626100001</v>
+      </c>
+      <c r="F84" s="2">
+        <v>30405.604626100001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="2">
+        <v>28899.077633600002</v>
+      </c>
+      <c r="F85" s="2">
+        <v>28899.077633600002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="2">
+        <v>29889.254532399998</v>
+      </c>
+      <c r="F86" s="2">
+        <v>29889.254532399998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="2">
+        <v>32198.766966499999</v>
+      </c>
+      <c r="F87" s="2">
+        <v>32198.766966499999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="2">
+        <v>34632.066709999999</v>
+      </c>
+      <c r="F88" s="2">
+        <v>34632.066709999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="2">
+        <v>37622.225612499999</v>
+      </c>
+      <c r="F89" s="2">
+        <v>37622.225612499999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="2">
+        <v>43406.3940602</v>
+      </c>
+      <c r="F90" s="2">
+        <v>43406.3940602</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="2">
+        <v>50024.562151899998</v>
+      </c>
+      <c r="F91" s="2">
+        <v>50024.562151899998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="2">
+        <v>50508.821286600003</v>
+      </c>
+      <c r="F92" s="2">
+        <v>50508.821286600003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="2">
+        <v>53051.002392100003</v>
+      </c>
+      <c r="F93" s="2">
+        <v>53051.002392100003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="2">
+        <v>49366.981357899997</v>
+      </c>
+      <c r="F94" s="2">
+        <v>49366.981357899997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="2">
+        <v>47222.808927600003</v>
+      </c>
+      <c r="F95" s="2">
+        <v>47222.808927600003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="2">
+        <v>47987.2754929</v>
+      </c>
+      <c r="F96" s="2">
+        <v>47987.2754929</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="2">
+        <v>48772.414127999997</v>
+      </c>
+      <c r="F97" s="2">
+        <v>48772.414127999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="2">
+        <v>53370.028918999997</v>
+      </c>
+      <c r="F98" s="2">
+        <v>53370.028918999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="2">
+        <v>54779.296360799999</v>
+      </c>
+      <c r="F99" s="2">
+        <v>54779.296360799999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="2">
+        <v>55691.6958046</v>
+      </c>
+      <c r="F100" s="2">
+        <v>55691.6958046</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="2">
+        <v>65389.285548899999</v>
+      </c>
+      <c r="F101" s="2">
+        <v>65389.285548899999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="2">
+        <v>66756.9335517</v>
+      </c>
+      <c r="F102" s="2">
+        <v>66756.9335517</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="2">
+        <v>64397.067811499997</v>
+      </c>
+      <c r="F103" s="2">
+        <v>64397.067811499997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="2">
+        <v>65978.095219900002</v>
+      </c>
+      <c r="F104" s="2">
+        <v>65978.095219900002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="2">
+        <v>73651.0779052</v>
+      </c>
+      <c r="F105" s="2">
+        <v>73651.0779052</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="2">
+        <v>77451.440441700004</v>
+      </c>
+      <c r="F106" s="2">
+        <v>77451.440441700004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="2">
+        <v>77018.348398100003</v>
+      </c>
+      <c r="F107" s="2">
+        <v>77018.348398100003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="2">
+        <v>74430.394618200007</v>
+      </c>
+      <c r="F108" s="2">
+        <v>74430.394618200007</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="2">
+        <v>80837.031775900003</v>
+      </c>
+      <c r="F109" s="2">
+        <v>80837.031775900003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="2">
+        <v>84120.987616900005</v>
+      </c>
+      <c r="F110" s="2">
+        <v>84120.987616900005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>